--- a/biology/Médecine/Martial_Bourassa/Martial_Bourassa.xlsx
+++ b/biology/Médecine/Martial_Bourassa/Martial_Bourassa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joseph Martial Germain Bourassa, né à Saint-Barnabé, le 14 mai 1931 et mort le 28 juillet 2020[1] est un médecin canadien. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joseph Martial Germain Bourassa, né à Saint-Barnabé, le 14 mai 1931 et mort le 28 juillet 2020 est un médecin canadien. 
 Il est l'un des pionniers de la cardiologie au Québec. Son nom est attaché à l'invention d'un cathéter, le cathéter Bourassa
 </t>
         </is>
@@ -512,14 +524,16 @@
           <t>Honneurs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>1973 : Prix Jean Lenègre, Fondation Claude-Adolphe Nativelle, Paris, France=1981 - Prix d'excellence, Association des Médecins de Langue Française du Canada.
 1986 : Grand Prix de la Francophonie, Académie Française, Paris, France.
 1992 : Research Achievement Award, Canadian Cardiovascular Society.
 1992 : Médaille commémorative du 125e anniversaire de la Confédération du Canada.
-1993 : Officier de l'Ordre du Canada[2]
-1999 : Chevalier de l'Ordre national du Québec[3]
+1993 : Officier de l'Ordre du Canada
+1999 : Chevalier de l'Ordre national du Québec
 2000 : Prix Michel-Sarrazin</t>
         </is>
       </c>
